--- a/meta/samples/BlancoKeyGeneratorKtTableSample.xlsx
+++ b/meta/samples/BlancoKeyGeneratorKtTableSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC9528-04AE-1242-BF23-9A0A7F840755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584E4957-A1A1-A64C-A4F6-A46EF4A14171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="4360" windowWidth="25440" windowHeight="18580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="18580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabale v.1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>クラス名</t>
   </si>
@@ -692,22 +692,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>/* パッケージにバージョン番号が追加されたものと、追加されないものが生成されます */</t>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">ツイカ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">ツイカサレナイ </t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t xml:space="preserve">セイセイ </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>dividedRecordIndex</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -789,6 +773,36 @@
   </si>
   <si>
     <t>BlancoKeyGeneratorKtTableSample</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>tableSample01</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テーブル表示名</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ヒョウジメイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/* バージョン番号は整数値です。パッケージにバージョン番号が追加されたものと、追加されないものが生成されます */</t>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">セイスウチ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ツイカサレナイ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1590,7 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1753,6 +1767,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1804,29 +1842,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2239,10 +2256,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2303,11 +2320,11 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2324,8 +2341,8 @@
         <v>107</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7">
-        <v>1</v>
+      <c r="C7" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2339,11 +2356,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>110</v>
+      <c r="C8" s="123">
+        <v>1</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -2357,15 +2374,15 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -2375,11 +2392,11 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -2393,10 +2410,12 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="11"/>
@@ -2404,14 +2423,15 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="11"/>
@@ -2419,74 +2439,71 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:14" ht="29" customHeight="1">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" ht="29" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="117" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
     </row>
-    <row r="15" spans="1:14" s="28" customFormat="1">
-      <c r="A15" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55">
-        <v>2</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="57"/>
-      <c r="L15"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1">
       <c r="A16" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="55">
-        <v>900</v>
+        <v>2</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -2500,15 +2517,13 @@
     </row>
     <row r="17" spans="1:16" s="28" customFormat="1">
       <c r="A17" s="53" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="55">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" s="57"/>
@@ -2520,14 +2535,14 @@
     </row>
     <row r="18" spans="1:16" s="28" customFormat="1">
       <c r="A18" s="53" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -2538,93 +2553,95 @@
       <c r="K18" s="57"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:16" s="33" customFormat="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="26" t="s">
+    <row r="19" spans="1:16" s="28" customFormat="1">
+      <c r="A19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="57"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:16" s="33" customFormat="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="41" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="44">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="31"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="44">
         <v>1</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="44"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="68"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
@@ -2637,12 +2654,12 @@
       <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="45"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="69"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
       <c r="I24" s="59"/>
@@ -2655,149 +2672,132 @@
       <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A27" s="116" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A28" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B28" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C28" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D28" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E28" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="115" t="s">
+      <c r="F28" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G28" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H28" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="120" t="s">
+      <c r="I28" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="92" t="s">
+      <c r="J28" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="120" t="s">
+      <c r="K28" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="115" t="s">
+      <c r="L28" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="115"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="15"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="19">
-        <v>1</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="21">
-        <v>10</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="24"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="25"/>
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="19">
-        <f>A29+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="21">
-        <v>0</v>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="G30" s="90"/>
       <c r="H30" s="61" t="s">
@@ -2808,10 +2808,10 @@
         <v>23</v>
       </c>
       <c r="K30" s="21">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2820,23 +2820,23 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="19">
-        <f t="shared" ref="A31:A33" si="0">A30+1</f>
-        <v>3</v>
+        <f>A30+1</f>
+        <v>2</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="21">
         <v>0</v>
       </c>
       <c r="G31" s="90"/>
       <c r="H31" s="61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I31" s="61"/>
       <c r="J31" s="61" t="s">
@@ -2846,40 +2846,42 @@
         <v>64</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
+      <c r="O31" s="24"/>
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A32:A34" si="0">A31+1</f>
+        <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="21" t="s">
-        <v>62</v>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
+        <v>0</v>
       </c>
       <c r="G32" s="90"/>
-      <c r="H32" s="61"/>
+      <c r="H32" s="61" t="s">
+        <v>82</v>
+      </c>
       <c r="I32" s="61"/>
       <c r="J32" s="61" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="21">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2889,28 +2891,30 @@
     <row r="33" spans="1:16">
       <c r="A33" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="62"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="90" t="s">
-        <v>32</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G33" s="90"/>
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="21"/>
+      <c r="J33" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="21">
+        <v>10</v>
+      </c>
       <c r="L33" s="21" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2918,18 +2922,31 @@
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="19"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="90"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="90" t="s">
+        <v>32</v>
+      </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="L34" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="23"/>
@@ -2954,136 +2971,126 @@
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="75"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="3" t="s">
+    <row r="37" spans="1:16">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="15"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" ht="14" customHeight="1">
-      <c r="A39" s="116" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" ht="14" customHeight="1">
+      <c r="A40" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="116" t="s">
+      <c r="B40" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C40" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="94" t="s">
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="115" t="s">
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="M39" s="115"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="81"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="25"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="81"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="19">
-        <v>1</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="24"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="19">
-        <f>A41+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
+        <v>90</v>
+      </c>
+      <c r="C42" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="87"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="89"/>
       <c r="L42" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="80"/>
@@ -3091,84 +3098,95 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="19">
-        <f t="shared" ref="A43:A44" si="1">A42+1</f>
-        <v>3</v>
+        <f>A42+1</f>
+        <v>2</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="102"/>
+        <v>91</v>
+      </c>
+      <c r="C43" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="110"/>
       <c r="G43" s="82" t="s">
         <v>93</v>
       </c>
       <c r="H43" s="84"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="23"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="19">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="A44:A45" si="1">A43+1</f>
+        <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110"/>
       <c r="G44" s="82" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H44" s="84"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="82"/>
+      <c r="A45" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="82" t="s">
+        <v>102</v>
+      </c>
       <c r="H45" s="84"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-      <c r="L45" s="21"/>
+      <c r="L45" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="19"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="102"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="110"/>
       <c r="G46" s="82"/>
       <c r="H46" s="84"/>
       <c r="I46" s="22"/>
@@ -3182,10 +3200,10 @@
     <row r="47" spans="1:16">
       <c r="A47" s="19"/>
       <c r="B47" s="76"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="102"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="110"/>
       <c r="G47" s="82"/>
       <c r="H47" s="84"/>
       <c r="I47" s="22"/>
@@ -3197,134 +3215,151 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="75"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="70"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="75"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:15">
+      <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:15">
+      <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:15">
+      <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:15">
+      <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:15">
+      <c r="B57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="1:15">
+      <c r="B60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:15">
+      <c r="B61" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G40:K41"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C49:F49"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="L40:M41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="H28:H29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F52:K52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F53:K53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H36" xr:uid="{B03FFF6A-2687-EA45-8165-3DC4F3C6DE50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H37" xr:uid="{B03FFF6A-2687-EA45-8165-3DC4F3C6DE50}">
       <formula1>keyItems</formula1>
     </dataValidation>
   </dataValidations>
@@ -3340,7 +3375,7 @@
           <x14:formula1>
             <xm:f>config!$P$4:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I29:J36</xm:sqref>
+          <xm:sqref>I30:J37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/meta/samples/BlancoKeyGeneratorKtTableSample.xlsx
+++ b/meta/samples/BlancoKeyGeneratorKtTableSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584E4957-A1A1-A64C-A4F6-A46EF4A14171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DCAAB-09EC-784F-8A3B-CFA971868288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="18580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="6500" windowWidth="25440" windowHeight="18580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabale v.1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
   <si>
     <t>クラス名</t>
   </si>
@@ -230,14 +230,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>blanco.sample.keygeneratorkt</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>blanco\sample\keygeneratorkt</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>KVSタイプ</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -441,21 +433,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>データそのまま</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>sha256</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>16進数表記（数値のみ）</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ヒョウキ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">スウチ </t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -583,14 +561,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>keyItem01[raw, 64]+keyItem02[bin, 128]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>valueItem[raw, 256]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>pinPointIndex</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -600,10 +570,6 @@
   </si>
   <si>
     <t>keyItem03[bin, 128]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>keyItem01[raw, 64]+keyItem02[raw, 20]+valueItem01[raw, 256]</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -696,10 +662,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>keyItem01[raw, 64]+keyItem02[raw, 20]+valueItem01[raw, 4096]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>データ長が長くて分割された場合を想定。</t>
     <rPh sb="5" eb="6">
       <t xml:space="preserve">ナガクテ </t>
@@ -802,6 +764,65 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blanco.sample</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blanco\sample</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>base64</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b64</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>keyItem01[b64, 64]+keyItem02[bin, 128]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>valueItem01[b64, 256]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>keyItem01[b64, 64]+keyItem02[raw, 20]+valueItem01[raw, 256]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>keyItem01[b64, 64]+keyItem02[raw, 20]+valueItem01[raw, 4096]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>16進数表記</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヒョウキ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データそのまま、数値の場合は10進ASCII。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">スウチ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">シｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/* 1 - (2^8)^tableIdLength までの整数値 */</t>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">セイスウチ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1767,35 +1788,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1842,8 +1836,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2256,10 +2277,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2284,7 +2305,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -2305,7 +2326,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2320,11 +2341,11 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2338,11 +2359,11 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2356,16 +2377,18 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="123">
+      <c r="C8" s="92">
         <v>1</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>115</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -2378,7 +2401,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -2396,7 +2419,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -2414,7 +2437,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2462,12 +2485,12 @@
         <v>2</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
+      <c r="C14" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -2483,7 +2506,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2499,7 +2522,7 @@
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1">
       <c r="A16" s="53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="55">
@@ -2517,7 +2540,7 @@
     </row>
     <row r="17" spans="1:16" s="28" customFormat="1">
       <c r="A17" s="53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="55">
@@ -2535,14 +2558,14 @@
     </row>
     <row r="18" spans="1:16" s="28" customFormat="1">
       <c r="A18" s="53" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="55">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -2555,14 +2578,14 @@
     </row>
     <row r="19" spans="1:16" s="28" customFormat="1">
       <c r="A19" s="53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="55">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -2591,7 +2614,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2706,7 +2729,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2725,61 +2748,61 @@
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="100" t="s">
+      <c r="G28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="100" t="s">
+      <c r="H28" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="92" t="s">
+      <c r="K28" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="92"/>
+      <c r="M28" s="114"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
       <c r="N29" s="18"/>
       <c r="O29" s="25"/>
       <c r="P29" s="15"/>
@@ -2789,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>7</v>
@@ -2797,11 +2820,11 @@
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="90"/>
       <c r="H30" s="61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I30" s="61"/>
       <c r="J30" s="61" t="s">
@@ -2811,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2824,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>25</v>
@@ -2836,7 +2859,7 @@
       </c>
       <c r="G31" s="90"/>
       <c r="H31" s="61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I31" s="61"/>
       <c r="J31" s="61" t="s">
@@ -2846,7 +2869,7 @@
         <v>64</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2859,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>25</v>
@@ -2871,7 +2894,7 @@
       </c>
       <c r="G32" s="90"/>
       <c r="H32" s="61" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="61" t="s">
@@ -2881,7 +2904,7 @@
         <v>64</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2894,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>13</v>
@@ -2902,7 +2925,7 @@
       <c r="D33" s="21"/>
       <c r="E33" s="64"/>
       <c r="F33" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="90"/>
       <c r="H33" s="61"/>
@@ -2914,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2927,7 +2950,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>9</v>
@@ -2935,7 +2958,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="62"/>
       <c r="F34" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="90" t="s">
         <v>32</v>
@@ -2945,7 +2968,7 @@
       <c r="J34" s="61"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -3008,7 +3031,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3026,46 +3049,46 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:16" ht="14" customHeight="1">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="92" t="s">
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="M40" s="92"/>
+      <c r="M40" s="114"/>
       <c r="N40" s="16"/>
       <c r="O40" s="81"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
       <c r="N41" s="18"/>
       <c r="O41" s="25"/>
     </row>
@@ -3074,23 +3097,23 @@
         <v>1</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
+        <v>84</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="107"/>
       <c r="G42" s="86" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H42" s="87"/>
       <c r="I42" s="88"/>
       <c r="J42" s="88"/>
       <c r="K42" s="89"/>
       <c r="L42" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="80"/>
@@ -3102,23 +3125,23 @@
         <v>2</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="110"/>
+        <v>85</v>
+      </c>
+      <c r="C43" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
       <c r="G43" s="82" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H43" s="84"/>
       <c r="I43" s="80"/>
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
       <c r="L43" s="21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="80"/>
@@ -3130,23 +3153,23 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
+        <v>91</v>
+      </c>
+      <c r="C44" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101"/>
       <c r="G44" s="82" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H44" s="84"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -3158,23 +3181,23 @@
         <v>4</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="110"/>
+        <v>94</v>
+      </c>
+      <c r="C45" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="82" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H45" s="84"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -3183,10 +3206,10 @@
     <row r="46" spans="1:16">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
       <c r="G46" s="82"/>
       <c r="H46" s="84"/>
       <c r="I46" s="22"/>
@@ -3200,10 +3223,10 @@
     <row r="47" spans="1:16">
       <c r="A47" s="19"/>
       <c r="B47" s="76"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="110"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
       <c r="G47" s="82"/>
       <c r="H47" s="84"/>
       <c r="I47" s="22"/>
@@ -3217,10 +3240,10 @@
     <row r="48" spans="1:16">
       <c r="A48" s="19"/>
       <c r="B48" s="76"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="110"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="101"/>
       <c r="G48" s="82"/>
       <c r="H48" s="84"/>
       <c r="I48" s="22"/>
@@ -3234,10 +3257,10 @@
     <row r="49" spans="1:15">
       <c r="A49" s="70"/>
       <c r="B49" s="71"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="113"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="104"/>
       <c r="G49" s="83"/>
       <c r="H49" s="85"/>
       <c r="I49" s="74"/>
@@ -3250,92 +3273,98 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1" t="s">
-        <v>77</v>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="B60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>70</v>
+      <c r="A60" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="B63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G40:K41"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C40:F41"/>
     <mergeCell ref="L40:M41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
@@ -3352,10 +3381,20 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G40:K41"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C40:F41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F53:K53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F53:K54 F62:K62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3370,7 +3409,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D7EF1AF-B173-884C-9E34-724A844BDD2E}">
           <x14:formula1>
             <xm:f>config!$P$4:$P$5</xm:f>
@@ -3435,10 +3474,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="B3" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>28</v>
@@ -3461,10 +3500,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>29</v>
@@ -3477,10 +3516,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="52"/>
       <c r="H5" s="52" t="s">
@@ -3501,7 +3540,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
